--- a/Articles/Job-sequencing-to-minimize-completion-time/jobsequence.xlsx
+++ b/Articles/Job-sequencing-to-minimize-completion-time/jobsequence.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27318"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="58903" documentId="8_{470A51E0-36B3-4732-92C5-029E791C6A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{527AC0CE-6CDE-4DF1-BDBD-F1C8440F20EF}"/>
+  <xr:revisionPtr revIDLastSave="58916" documentId="8_{470A51E0-36B3-4732-92C5-029E791C6A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46B72983-5C51-43AE-B0D1-7915638FBE40}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{324EC751-9C60-40DD-8432-DBCA825DD949}"/>
+    <workbookView xWindow="33660" yWindow="2640" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{324EC751-9C60-40DD-8432-DBCA825DD949}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -436,9 +436,8 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3473,9 +3472,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3513,7 +3512,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3619,7 +3618,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3761,7 +3760,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3774,7 +3773,7 @@
   </sheetPr>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3787,7 +3786,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3801,7 +3800,7 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3809,43 +3808,43 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K19" s="39" t="s">
+      <c r="K19" s="38" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K21" s="10" t="s">
+      <c r="K21" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="11:11" x14ac:dyDescent="0.25"/>
     <row r="23" spans="11:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K23" s="13" t="s">
+      <c r="K23" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3855,7 +3854,7 @@
       </c>
     </row>
     <row r="25" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K25" s="14">
+      <c r="K25" s="13">
         <v>44205</v>
       </c>
     </row>
@@ -3879,434 +3878,434 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8" style="16" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="16" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="16" customWidth="1"/>
-    <col min="5" max="5" width="4.375" style="16" customWidth="1"/>
-    <col min="6" max="16" width="3.75" style="16" customWidth="1"/>
-    <col min="17" max="18" width="8.125" style="16" customWidth="1"/>
-    <col min="19" max="19" width="3.75" style="16" customWidth="1"/>
-    <col min="20" max="22" width="12.5" style="16" customWidth="1"/>
-    <col min="23" max="23" width="2.5" style="16" customWidth="1"/>
-    <col min="24" max="16384" width="8" style="16" hidden="1"/>
+    <col min="1" max="2" width="8" style="15" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="15" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="15" customWidth="1"/>
+    <col min="5" max="5" width="4.375" style="15" customWidth="1"/>
+    <col min="6" max="16" width="3.75" style="15" customWidth="1"/>
+    <col min="17" max="18" width="8.125" style="15" customWidth="1"/>
+    <col min="19" max="19" width="3.75" style="15" customWidth="1"/>
+    <col min="20" max="22" width="12.5" style="15" customWidth="1"/>
+    <col min="23" max="23" width="2.5" style="15" customWidth="1"/>
+    <col min="24" max="16384" width="8" style="15" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="A2"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="E3" s="11" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
     </row>
     <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
+      <c r="A5" s="25">
         <v>1</v>
       </c>
-      <c r="B5" s="26" t="str">
+      <c r="B5" s="25" t="str">
         <f t="shared" ref="B5:B14" si="0">INDEX($Q$27:$Q$36,MATCH(A5,$R$27:$R$36,0),1)</f>
         <v>E</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
+      <c r="C5" s="25"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
     </row>
     <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+      <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="str">
+      <c r="B6" s="25" t="str">
         <f t="shared" si="0"/>
         <v>G</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <f t="shared" ref="C6:C14" si="1">INDEX($F$27:$O$36,MATCH(B5,$E$27:$E$36,0),MATCH(B6,$F$26:$O$26,0))</f>
         <v>15</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
+      <c r="A7" s="25">
         <v>3</v>
       </c>
-      <c r="B7" s="26" t="str">
+      <c r="B7" s="25" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
     </row>
     <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+      <c r="A8" s="25">
         <v>4</v>
       </c>
-      <c r="B8" s="26" t="str">
+      <c r="B8" s="25" t="str">
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="25">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
     </row>
     <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
+      <c r="A9" s="25">
         <v>5</v>
       </c>
-      <c r="B9" s="26" t="str">
+      <c r="B9" s="25" t="str">
         <f t="shared" si="0"/>
         <v>I</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="25">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
     </row>
     <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+      <c r="A10" s="25">
         <v>6</v>
       </c>
-      <c r="B10" s="26" t="str">
+      <c r="B10" s="25" t="str">
         <f t="shared" si="0"/>
         <v>J</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="25">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
     </row>
     <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
+      <c r="A11" s="25">
         <v>7</v>
       </c>
-      <c r="B11" s="26" t="str">
+      <c r="B11" s="25" t="str">
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="25">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
     </row>
     <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
+      <c r="A12" s="25">
         <v>8</v>
       </c>
-      <c r="B12" s="26" t="str">
+      <c r="B12" s="25" t="str">
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="25">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
     </row>
     <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
+      <c r="A13" s="25">
         <v>9</v>
       </c>
-      <c r="B13" s="26" t="str">
+      <c r="B13" s="25" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="25">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
     </row>
     <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
+      <c r="A14" s="25">
         <v>10</v>
       </c>
-      <c r="B14" s="26" t="str">
+      <c r="B14" s="25" t="str">
         <f t="shared" si="0"/>
         <v>H</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="25">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="30" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="29">
         <f>SUM(C6:C14)</f>
         <v>215</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
     </row>
     <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4335,34 +4334,34 @@
       <c r="C21"/>
     </row>
     <row r="22" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W22" s="17"/>
+      <c r="W22" s="16"/>
     </row>
     <row r="23" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
       <c r="P23"/>
-      <c r="Q23" s="11" t="s">
+      <c r="Q23" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
     </row>
     <row r="24" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F24"/>
@@ -4376,17 +4375,17 @@
       <c r="N24"/>
       <c r="O24"/>
       <c r="P24"/>
-      <c r="Q24" s="13"/>
+      <c r="Q24" s="12"/>
       <c r="R24"/>
       <c r="S24"/>
-      <c r="T24" s="13"/>
+      <c r="T24" s="12"/>
       <c r="U24"/>
       <c r="V24"/>
       <c r="W24"/>
     </row>
     <row r="25" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E25" s="13"/>
-      <c r="F25" s="4" t="s">
+      <c r="E25" s="12"/>
+      <c r="F25" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G25"/>
@@ -4403,496 +4402,496 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D26"/>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="M26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="N26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O26" s="4" t="s">
+      <c r="O26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="P26"/>
-      <c r="Q26" s="3" t="s">
+      <c r="Q26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R26" s="25" t="s">
+      <c r="R26" s="24" t="s">
         <v>29</v>
       </c>
       <c r="W26"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F27" s="30">
         <v>0</v>
       </c>
-      <c r="G27" s="31">
+      <c r="G27" s="30">
         <v>60</v>
       </c>
-      <c r="H27" s="31">
+      <c r="H27" s="30">
         <v>60</v>
       </c>
-      <c r="I27" s="31">
+      <c r="I27" s="30">
         <v>5</v>
       </c>
-      <c r="J27" s="31">
+      <c r="J27" s="30">
         <v>5</v>
       </c>
-      <c r="K27" s="31">
+      <c r="K27" s="30">
         <v>5</v>
       </c>
-      <c r="L27" s="31">
+      <c r="L27" s="30">
         <v>10</v>
       </c>
-      <c r="M27" s="31">
+      <c r="M27" s="30">
         <v>10</v>
       </c>
-      <c r="N27" s="31">
+      <c r="N27" s="30">
         <v>15</v>
       </c>
-      <c r="O27" s="31">
+      <c r="O27" s="30">
         <v>15</v>
       </c>
       <c r="P27"/>
-      <c r="Q27" s="28" t="str">
+      <c r="Q27" s="27" t="str">
         <f t="shared" ref="Q27:Q36" si="2">E27</f>
         <v>A</v>
       </c>
-      <c r="R27" s="36">
+      <c r="R27" s="35">
         <v>3</v>
       </c>
       <c r="W27"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="30">
         <v>30</v>
       </c>
-      <c r="G28" s="31">
+      <c r="G28" s="30">
         <v>0</v>
       </c>
-      <c r="H28" s="31">
+      <c r="H28" s="30">
         <v>15</v>
       </c>
-      <c r="I28" s="31">
+      <c r="I28" s="30">
         <v>5</v>
       </c>
-      <c r="J28" s="31">
+      <c r="J28" s="30">
         <v>60</v>
       </c>
-      <c r="K28" s="31">
+      <c r="K28" s="30">
         <v>60</v>
       </c>
-      <c r="L28" s="31">
+      <c r="L28" s="30">
         <v>30</v>
       </c>
-      <c r="M28" s="31">
+      <c r="M28" s="30">
         <v>15</v>
       </c>
-      <c r="N28" s="31">
+      <c r="N28" s="30">
         <v>15</v>
       </c>
-      <c r="O28" s="31">
+      <c r="O28" s="30">
         <v>5</v>
       </c>
       <c r="P28"/>
-      <c r="Q28" s="28" t="str">
+      <c r="Q28" s="27" t="str">
         <f t="shared" si="2"/>
         <v>B</v>
       </c>
-      <c r="R28" s="36">
+      <c r="R28" s="35">
         <v>4</v>
       </c>
       <c r="W28"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="31">
+      <c r="F29" s="30">
         <v>30</v>
       </c>
-      <c r="G29" s="31">
+      <c r="G29" s="30">
         <v>5</v>
       </c>
-      <c r="H29" s="31">
+      <c r="H29" s="30">
         <v>0</v>
       </c>
-      <c r="I29" s="31">
+      <c r="I29" s="30">
         <v>60</v>
       </c>
-      <c r="J29" s="31">
+      <c r="J29" s="30">
         <v>5</v>
       </c>
-      <c r="K29" s="31">
+      <c r="K29" s="30">
         <v>30</v>
       </c>
-      <c r="L29" s="31">
+      <c r="L29" s="30">
         <v>30</v>
       </c>
-      <c r="M29" s="31">
+      <c r="M29" s="30">
         <v>10</v>
       </c>
-      <c r="N29" s="31">
+      <c r="N29" s="30">
         <v>15</v>
       </c>
-      <c r="O29" s="31">
+      <c r="O29" s="30">
         <v>15</v>
       </c>
       <c r="P29"/>
-      <c r="Q29" s="28" t="str">
+      <c r="Q29" s="27" t="str">
         <f t="shared" si="2"/>
         <v>C</v>
       </c>
-      <c r="R29" s="36">
+      <c r="R29" s="35">
         <v>8</v>
       </c>
       <c r="W29"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="30">
         <v>60</v>
       </c>
-      <c r="G30" s="31">
+      <c r="G30" s="30">
         <v>30</v>
       </c>
-      <c r="H30" s="31">
+      <c r="H30" s="30">
         <v>10</v>
       </c>
-      <c r="I30" s="31">
+      <c r="I30" s="30">
         <v>0</v>
       </c>
-      <c r="J30" s="31">
+      <c r="J30" s="30">
         <v>15</v>
       </c>
-      <c r="K30" s="31">
+      <c r="K30" s="30">
         <v>15</v>
       </c>
-      <c r="L30" s="31">
+      <c r="L30" s="30">
         <v>15</v>
       </c>
-      <c r="M30" s="31">
+      <c r="M30" s="30">
         <v>5</v>
       </c>
-      <c r="N30" s="31">
+      <c r="N30" s="30">
         <v>15</v>
       </c>
-      <c r="O30" s="31">
+      <c r="O30" s="30">
         <v>60</v>
       </c>
       <c r="P30"/>
-      <c r="Q30" s="28" t="str">
+      <c r="Q30" s="27" t="str">
         <f t="shared" si="2"/>
         <v>D</v>
       </c>
-      <c r="R30" s="36">
+      <c r="R30" s="35">
         <v>7</v>
       </c>
       <c r="W30"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="30">
         <v>5</v>
       </c>
-      <c r="G31" s="31">
+      <c r="G31" s="30">
         <v>60</v>
       </c>
-      <c r="H31" s="31">
+      <c r="H31" s="30">
         <v>15</v>
       </c>
-      <c r="I31" s="31">
+      <c r="I31" s="30">
         <v>60</v>
       </c>
-      <c r="J31" s="31">
+      <c r="J31" s="30">
         <v>0</v>
       </c>
-      <c r="K31" s="31">
+      <c r="K31" s="30">
         <v>5</v>
       </c>
-      <c r="L31" s="31">
+      <c r="L31" s="30">
         <v>15</v>
       </c>
-      <c r="M31" s="31">
+      <c r="M31" s="30">
         <v>5</v>
       </c>
-      <c r="N31" s="31">
+      <c r="N31" s="30">
         <v>5</v>
       </c>
-      <c r="O31" s="31">
+      <c r="O31" s="30">
         <v>15</v>
       </c>
       <c r="P31"/>
-      <c r="Q31" s="28" t="str">
+      <c r="Q31" s="27" t="str">
         <f t="shared" si="2"/>
         <v>E</v>
       </c>
-      <c r="R31" s="36">
+      <c r="R31" s="35">
         <v>1</v>
       </c>
       <c r="W31"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="31">
+      <c r="F32" s="30">
         <v>5</v>
       </c>
-      <c r="G32" s="31">
+      <c r="G32" s="30">
         <v>60</v>
       </c>
-      <c r="H32" s="31">
+      <c r="H32" s="30">
         <v>10</v>
       </c>
-      <c r="I32" s="31">
+      <c r="I32" s="30">
         <v>10</v>
       </c>
-      <c r="J32" s="31">
+      <c r="J32" s="30">
         <v>15</v>
       </c>
-      <c r="K32" s="31">
+      <c r="K32" s="30">
         <v>0</v>
       </c>
-      <c r="L32" s="31">
+      <c r="L32" s="30">
         <v>10</v>
       </c>
-      <c r="M32" s="31">
+      <c r="M32" s="30">
         <v>15</v>
       </c>
-      <c r="N32" s="31">
+      <c r="N32" s="30">
         <v>30</v>
       </c>
-      <c r="O32" s="31">
+      <c r="O32" s="30">
         <v>15</v>
       </c>
       <c r="P32"/>
-      <c r="Q32" s="28" t="str">
+      <c r="Q32" s="27" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="R32" s="36">
+      <c r="R32" s="35">
         <v>9</v>
       </c>
       <c r="W32"/>
     </row>
     <row r="33" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="31">
+      <c r="F33" s="30">
         <v>5</v>
       </c>
-      <c r="G33" s="31">
+      <c r="G33" s="30">
         <v>5</v>
       </c>
-      <c r="H33" s="31">
+      <c r="H33" s="30">
         <v>30</v>
       </c>
-      <c r="I33" s="31">
+      <c r="I33" s="30">
         <v>5</v>
       </c>
-      <c r="J33" s="31">
+      <c r="J33" s="30">
         <v>10</v>
       </c>
-      <c r="K33" s="31">
+      <c r="K33" s="30">
         <v>60</v>
       </c>
-      <c r="L33" s="31">
+      <c r="L33" s="30">
         <v>0</v>
       </c>
-      <c r="M33" s="31">
+      <c r="M33" s="30">
         <v>10</v>
       </c>
-      <c r="N33" s="31">
+      <c r="N33" s="30">
         <v>30</v>
       </c>
-      <c r="O33" s="31">
+      <c r="O33" s="30">
         <v>60</v>
       </c>
       <c r="P33"/>
-      <c r="Q33" s="28" t="str">
+      <c r="Q33" s="27" t="str">
         <f t="shared" si="2"/>
         <v>G</v>
       </c>
-      <c r="R33" s="36">
+      <c r="R33" s="35">
         <v>2</v>
       </c>
       <c r="W33"/>
     </row>
     <row r="34" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F34" s="30">
         <v>10</v>
       </c>
-      <c r="G34" s="31">
+      <c r="G34" s="30">
         <v>30</v>
       </c>
-      <c r="H34" s="31">
+      <c r="H34" s="30">
         <v>60</v>
       </c>
-      <c r="I34" s="31">
+      <c r="I34" s="30">
         <v>60</v>
       </c>
-      <c r="J34" s="31">
+      <c r="J34" s="30">
         <v>30</v>
       </c>
-      <c r="K34" s="31">
+      <c r="K34" s="30">
         <v>30</v>
       </c>
-      <c r="L34" s="31">
+      <c r="L34" s="30">
         <v>5</v>
       </c>
-      <c r="M34" s="31">
+      <c r="M34" s="30">
         <v>0</v>
       </c>
-      <c r="N34" s="31">
+      <c r="N34" s="30">
         <v>10</v>
       </c>
-      <c r="O34" s="31">
+      <c r="O34" s="30">
         <v>15</v>
       </c>
       <c r="P34"/>
-      <c r="Q34" s="28" t="str">
+      <c r="Q34" s="27" t="str">
         <f t="shared" si="2"/>
         <v>H</v>
       </c>
-      <c r="R34" s="36">
+      <c r="R34" s="35">
         <v>10</v>
       </c>
       <c r="W34"/>
     </row>
     <row r="35" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="31">
+      <c r="F35" s="30">
         <v>30</v>
       </c>
-      <c r="G35" s="31">
+      <c r="G35" s="30">
         <v>60</v>
       </c>
-      <c r="H35" s="31">
+      <c r="H35" s="30">
         <v>10</v>
       </c>
-      <c r="I35" s="31">
+      <c r="I35" s="30">
         <v>15</v>
       </c>
-      <c r="J35" s="31">
+      <c r="J35" s="30">
         <v>15</v>
       </c>
-      <c r="K35" s="31">
+      <c r="K35" s="30">
         <v>30</v>
       </c>
-      <c r="L35" s="31">
+      <c r="L35" s="30">
         <v>60</v>
       </c>
-      <c r="M35" s="31">
+      <c r="M35" s="30">
         <v>5</v>
       </c>
-      <c r="N35" s="31">
+      <c r="N35" s="30">
         <v>0</v>
       </c>
-      <c r="O35" s="31">
+      <c r="O35" s="30">
         <v>60</v>
       </c>
       <c r="P35"/>
-      <c r="Q35" s="28" t="str">
+      <c r="Q35" s="27" t="str">
         <f t="shared" si="2"/>
         <v>I</v>
       </c>
-      <c r="R35" s="36">
+      <c r="R35" s="35">
         <v>5</v>
       </c>
       <c r="W35"/>
     </row>
     <row r="36" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F36" s="31">
+      <c r="F36" s="30">
         <v>60</v>
       </c>
-      <c r="G36" s="31">
+      <c r="G36" s="30">
         <v>60</v>
       </c>
-      <c r="H36" s="31">
+      <c r="H36" s="30">
         <v>5</v>
       </c>
-      <c r="I36" s="31">
+      <c r="I36" s="30">
         <v>5</v>
       </c>
-      <c r="J36" s="31">
+      <c r="J36" s="30">
         <v>30</v>
       </c>
-      <c r="K36" s="31">
+      <c r="K36" s="30">
         <v>10</v>
       </c>
-      <c r="L36" s="31">
+      <c r="L36" s="30">
         <v>60</v>
       </c>
-      <c r="M36" s="31">
+      <c r="M36" s="30">
         <v>15</v>
       </c>
-      <c r="N36" s="31">
+      <c r="N36" s="30">
         <v>15</v>
       </c>
-      <c r="O36" s="31">
+      <c r="O36" s="30">
         <v>0</v>
       </c>
       <c r="P36"/>
-      <c r="Q36" s="28" t="str">
+      <c r="Q36" s="27" t="str">
         <f t="shared" si="2"/>
         <v>J</v>
       </c>
-      <c r="R36" s="36">
+      <c r="R36" s="35">
         <v>6</v>
       </c>
       <c r="W36"/>
     </row>
     <row r="37" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
       <c r="O37"/>
       <c r="P37"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
       <c r="W37"/>
     </row>
     <row r="38" spans="5:23" x14ac:dyDescent="0.25"/>
@@ -4928,881 +4927,881 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="D3" s="22" t="s">
+      <c r="B3" s="19"/>
+      <c r="D3" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="23" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="22" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>0</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>0</v>
       </c>
-      <c r="C5" s="34"/>
+      <c r="C5" s="33"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="32">
         <v>0</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="34"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>10</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>0</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>15</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="32">
         <v>0</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>20</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>0</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>25</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="32">
         <v>0</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>30</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>0</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>35</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="32">
         <v>0</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>40</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="32">
         <v>0</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>45</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="32">
         <v>2</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>50</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="32">
         <v>21</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>55</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="32">
         <v>114</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>60</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="32">
         <v>309</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>65</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="32">
         <v>758</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>70</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="32">
         <v>1593</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>75</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="32">
         <v>2787</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>80</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="32">
         <v>4366</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>85</v>
       </c>
-      <c r="B22" s="33">
+      <c r="B22" s="32">
         <v>6368</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>90</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="32">
         <v>8637</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>95</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B24" s="32">
         <v>11706</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>100</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="32">
         <v>14233</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>105</v>
       </c>
-      <c r="B26" s="33">
+      <c r="B26" s="32">
         <v>18021</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>110</v>
       </c>
-      <c r="B27" s="33">
+      <c r="B27" s="32">
         <v>21375</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>115</v>
       </c>
-      <c r="B28" s="33">
+      <c r="B28" s="32">
         <v>23891</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>120</v>
       </c>
-      <c r="B29" s="33">
+      <c r="B29" s="32">
         <v>28872</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>125</v>
       </c>
-      <c r="B30" s="33">
+      <c r="B30" s="32">
         <v>33734</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>130</v>
       </c>
-      <c r="B31" s="33">
+      <c r="B31" s="32">
         <v>40445</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>135</v>
       </c>
-      <c r="B32" s="33">
+      <c r="B32" s="32">
         <v>47068</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>140</v>
       </c>
-      <c r="B33" s="33">
+      <c r="B33" s="32">
         <v>52704</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>145</v>
       </c>
-      <c r="B34" s="33">
+      <c r="B34" s="32">
         <v>59570</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>150</v>
       </c>
-      <c r="B35" s="33">
+      <c r="B35" s="32">
         <v>68900</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>155</v>
       </c>
-      <c r="B36" s="33">
+      <c r="B36" s="32">
         <v>76506</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>160</v>
       </c>
-      <c r="B37" s="33">
+      <c r="B37" s="32">
         <v>82536</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>165</v>
       </c>
-      <c r="B38" s="33">
+      <c r="B38" s="32">
         <v>87839</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>170</v>
       </c>
-      <c r="B39" s="33">
+      <c r="B39" s="32">
         <v>90487</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>175</v>
       </c>
-      <c r="B40" s="33">
+      <c r="B40" s="32">
         <v>96411</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>180</v>
       </c>
-      <c r="B41" s="33">
+      <c r="B41" s="32">
         <v>104728</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>185</v>
       </c>
-      <c r="B42" s="33">
+      <c r="B42" s="32">
         <v>108533</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>190</v>
       </c>
-      <c r="B43" s="33">
+      <c r="B43" s="32">
         <v>110403</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>195</v>
       </c>
-      <c r="B44" s="33">
+      <c r="B44" s="32">
         <v>113417</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>200</v>
       </c>
-      <c r="B45" s="33">
+      <c r="B45" s="32">
         <v>116599</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>205</v>
       </c>
-      <c r="B46" s="33">
+      <c r="B46" s="32">
         <v>122755</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>210</v>
       </c>
-      <c r="B47" s="33">
+      <c r="B47" s="32">
         <v>124710</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>215</v>
       </c>
-      <c r="B48" s="33">
+      <c r="B48" s="32">
         <v>120536</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>220</v>
       </c>
-      <c r="B49" s="33">
+      <c r="B49" s="32">
         <v>117406</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>225</v>
       </c>
-      <c r="B50" s="33">
+      <c r="B50" s="32">
         <v>114353</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>230</v>
       </c>
-      <c r="B51" s="33">
+      <c r="B51" s="32">
         <v>113258</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+      <c r="A52" s="3">
         <v>235</v>
       </c>
-      <c r="B52" s="33">
+      <c r="B52" s="32">
         <v>113400</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <v>240</v>
       </c>
-      <c r="B53" s="33">
+      <c r="B53" s="32">
         <v>108612</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+      <c r="A54" s="3">
         <v>245</v>
       </c>
-      <c r="B54" s="33">
+      <c r="B54" s="32">
         <v>100912</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+      <c r="A55" s="3">
         <v>250</v>
       </c>
-      <c r="B55" s="33">
+      <c r="B55" s="32">
         <v>97946</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+      <c r="A56" s="3">
         <v>255</v>
       </c>
-      <c r="B56" s="33">
+      <c r="B56" s="32">
         <v>97779</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+      <c r="A57" s="3">
         <v>260</v>
       </c>
-      <c r="B57" s="33">
+      <c r="B57" s="32">
         <v>94733</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
+      <c r="A58" s="3">
         <v>265</v>
       </c>
-      <c r="B58" s="33">
+      <c r="B58" s="32">
         <v>89069</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+      <c r="A59" s="3">
         <v>270</v>
       </c>
-      <c r="B59" s="33">
+      <c r="B59" s="32">
         <v>78080</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
+      <c r="A60" s="3">
         <v>275</v>
       </c>
-      <c r="B60" s="33">
+      <c r="B60" s="32">
         <v>71578</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+      <c r="A61" s="3">
         <v>280</v>
       </c>
-      <c r="B61" s="33">
+      <c r="B61" s="32">
         <v>69237</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
+      <c r="A62" s="3">
         <v>285</v>
       </c>
-      <c r="B62" s="33">
+      <c r="B62" s="32">
         <v>64350</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+      <c r="A63" s="3">
         <v>290</v>
       </c>
-      <c r="B63" s="33">
+      <c r="B63" s="32">
         <v>59822</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
+      <c r="A64" s="3">
         <v>295</v>
       </c>
-      <c r="B64" s="33">
+      <c r="B64" s="32">
         <v>52720</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
+      <c r="A65" s="3">
         <v>300</v>
       </c>
-      <c r="B65" s="33">
+      <c r="B65" s="32">
         <v>46407</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
+      <c r="A66" s="3">
         <v>305</v>
       </c>
-      <c r="B66" s="33">
+      <c r="B66" s="32">
         <v>44893</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
+      <c r="A67" s="3">
         <v>310</v>
       </c>
-      <c r="B67" s="33">
+      <c r="B67" s="32">
         <v>43420</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
+      <c r="A68" s="3">
         <v>315</v>
       </c>
-      <c r="B68" s="33">
+      <c r="B68" s="32">
         <v>36673</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
+      <c r="A69" s="3">
         <v>320</v>
       </c>
-      <c r="B69" s="33">
+      <c r="B69" s="32">
         <v>31059</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
+      <c r="A70" s="3">
         <v>325</v>
       </c>
-      <c r="B70" s="33">
+      <c r="B70" s="32">
         <v>25984</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
+      <c r="A71" s="3">
         <v>330</v>
       </c>
-      <c r="B71" s="33">
+      <c r="B71" s="32">
         <v>22552</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
+      <c r="A72" s="3">
         <v>335</v>
       </c>
-      <c r="B72" s="33">
+      <c r="B72" s="32">
         <v>21443</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
+      <c r="A73" s="3">
         <v>340</v>
       </c>
-      <c r="B73" s="33">
+      <c r="B73" s="32">
         <v>19278</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
+      <c r="A74" s="3">
         <v>345</v>
       </c>
-      <c r="B74" s="33">
+      <c r="B74" s="32">
         <v>15579</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
+      <c r="A75" s="3">
         <v>350</v>
       </c>
-      <c r="B75" s="33">
+      <c r="B75" s="32">
         <v>12608</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
+      <c r="A76" s="3">
         <v>355</v>
       </c>
-      <c r="B76" s="33">
+      <c r="B76" s="32">
         <v>11856</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
+      <c r="A77" s="3">
         <v>360</v>
       </c>
-      <c r="B77" s="33">
+      <c r="B77" s="32">
         <v>10787</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
+      <c r="A78" s="3">
         <v>365</v>
       </c>
-      <c r="B78" s="33">
+      <c r="B78" s="32">
         <v>8855</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
+      <c r="A79" s="3">
         <v>370</v>
       </c>
-      <c r="B79" s="33">
+      <c r="B79" s="32">
         <v>6368</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
+      <c r="A80" s="3">
         <v>375</v>
       </c>
-      <c r="B80" s="33">
+      <c r="B80" s="32">
         <v>5072</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="4">
+      <c r="A81" s="3">
         <v>380</v>
       </c>
-      <c r="B81" s="33">
+      <c r="B81" s="32">
         <v>3967</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
+      <c r="A82" s="3">
         <v>385</v>
       </c>
-      <c r="B82" s="33">
+      <c r="B82" s="32">
         <v>3621</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
+      <c r="A83" s="3">
         <v>390</v>
       </c>
-      <c r="B83" s="33">
+      <c r="B83" s="32">
         <v>3379</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="4">
+      <c r="A84" s="3">
         <v>395</v>
       </c>
-      <c r="B84" s="33">
+      <c r="B84" s="32">
         <v>2301</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="4">
+      <c r="A85" s="3">
         <v>400</v>
       </c>
-      <c r="B85" s="33">
+      <c r="B85" s="32">
         <v>1821</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="4">
+      <c r="A86" s="3">
         <v>405</v>
       </c>
-      <c r="B86" s="33">
+      <c r="B86" s="32">
         <v>2010</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
+      <c r="A87" s="3">
         <v>410</v>
       </c>
-      <c r="B87" s="33">
+      <c r="B87" s="32">
         <v>1233</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="4">
+      <c r="A88" s="3">
         <v>415</v>
       </c>
-      <c r="B88" s="33">
+      <c r="B88" s="32">
         <v>847</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="4">
+      <c r="A89" s="3">
         <v>420</v>
       </c>
-      <c r="B89" s="33">
+      <c r="B89" s="32">
         <v>819</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
+      <c r="A90" s="3">
         <v>425</v>
       </c>
-      <c r="B90" s="33">
+      <c r="B90" s="32">
         <v>341</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
+      <c r="A91" s="3">
         <v>430</v>
       </c>
-      <c r="B91" s="33">
+      <c r="B91" s="32">
         <v>296</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="4">
+      <c r="A92" s="3">
         <v>435</v>
       </c>
-      <c r="B92" s="33">
+      <c r="B92" s="32">
         <v>367</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
+      <c r="A93" s="3">
         <v>440</v>
       </c>
-      <c r="B93" s="33">
+      <c r="B93" s="32">
         <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="4">
+      <c r="A94" s="3">
         <v>445</v>
       </c>
-      <c r="B94" s="33">
+      <c r="B94" s="32">
         <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="4">
+      <c r="A95" s="3">
         <v>450</v>
       </c>
-      <c r="B95" s="33">
+      <c r="B95" s="32">
         <v>205</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="4">
+      <c r="A96" s="3">
         <v>455</v>
       </c>
-      <c r="B96" s="33">
+      <c r="B96" s="32">
         <v>64</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="4">
+      <c r="A97" s="3">
         <v>460</v>
       </c>
-      <c r="B97" s="33">
+      <c r="B97" s="32">
         <v>46</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="4">
+      <c r="A98" s="3">
         <v>465</v>
       </c>
-      <c r="B98" s="33">
+      <c r="B98" s="32">
         <v>64</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="4">
+      <c r="A99" s="3">
         <v>470</v>
       </c>
-      <c r="B99" s="33">
+      <c r="B99" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="4">
+      <c r="A100" s="3">
         <v>475</v>
       </c>
-      <c r="B100" s="33">
+      <c r="B100" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="4">
+      <c r="A101" s="3">
         <v>480</v>
       </c>
-      <c r="B101" s="33">
+      <c r="B101" s="32">
         <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="4">
+      <c r="A102" s="3">
         <v>485</v>
       </c>
-      <c r="B102" s="33">
+      <c r="B102" s="32">
         <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="4">
+      <c r="A103" s="3">
         <v>490</v>
       </c>
-      <c r="B103" s="33">
+      <c r="B103" s="32">
         <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="4">
+      <c r="A104" s="3">
         <v>495</v>
       </c>
-      <c r="B104" s="33">
+      <c r="B104" s="32">
         <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="4">
+      <c r="A105" s="3">
         <v>500</v>
       </c>
-      <c r="B105" s="33">
+      <c r="B105" s="32">
         <v>0</v>
       </c>
     </row>
@@ -5832,163 +5831,163 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.5" style="24" customWidth="1"/>
-    <col min="3" max="3" width="3.75" style="24" customWidth="1"/>
-    <col min="4" max="16" width="7.5" style="24" customWidth="1"/>
-    <col min="17" max="17" width="2.5" style="24" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="24" hidden="1"/>
+    <col min="1" max="2" width="12.5" style="23" customWidth="1"/>
+    <col min="3" max="3" width="3.75" style="23" customWidth="1"/>
+    <col min="4" max="16" width="7.5" style="23" customWidth="1"/>
+    <col min="17" max="17" width="2.5" style="23" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="23" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="10"/>
+      <c r="D3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
     </row>
     <row r="7" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
+      <c r="B7" s="10"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25"/>
